--- a/cypress/fixtures/testData.xlsx
+++ b/cypress/fixtures/testData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>email</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>admin@1</t>
-  </si>
-  <si>
-    <t>failure</t>
   </si>
 </sst>
 </file>
@@ -96,7 +93,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +408,7 @@
     <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -433,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -441,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
